--- a/data/trans_orig/P34C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C59D38-9C30-4AF7-A9D0-0F9630916775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C289FEA-0BC5-4DCC-AB38-10CEC2D88744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E589785-96D0-487A-BE82-95046640F809}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34137F49-8369-486C-A2E6-748E0553661F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="371">
   <si>
     <t>Población según el número de días por semana que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,59%)</t>
   </si>
@@ -71,28 +71,28 @@
     <t>38,13%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
   <si>
     <t>45,07%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
   </si>
   <si>
     <t>3,63%</t>
@@ -101,13 +101,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>14,94%</t>
+    <t>14,56%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,52%</t>
+    <t>3,86%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -116,55 +116,55 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>6,02%</t>
+    <t>6,4%</t>
   </si>
   <si>
     <t>22,6%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>19,67%</t>
+    <t>17,47%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>2,82%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>12,79%</t>
@@ -173,61 +173,61 @@
     <t>13,41%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>15,45%</t>
+    <t>17,23%</t>
   </si>
   <si>
     <t>0%</t>
@@ -239,7 +239,7 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>8,39%</t>
+    <t>6,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -251,67 +251,73 @@
     <t>50,16%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>46,33%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>9,16%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>6,98%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>15,57%</t>
@@ -320,754 +326,751 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>18,91%</t>
+    <t>18,85%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,62%</t>
+    <t>6,68%</t>
   </si>
   <si>
     <t>8,99%</t>
@@ -1076,70 +1079,73 @@
     <t>18,82%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
+    <t>22,56%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>11,56%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>3,68%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1554,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37979365-DC31-476D-A1B2-35C7A817A2D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD9D30-ECF6-4E91-B459-437F004D1401}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2157,10 +2163,10 @@
         <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2169,13 +2175,13 @@
         <v>19149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2196,13 @@
         <v>30197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -2205,13 +2211,13 @@
         <v>36155</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -2220,13 +2226,13 @@
         <v>66352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2247,13 @@
         <v>7137</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -2256,13 +2262,13 @@
         <v>11831</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>26</v>
@@ -2271,13 +2277,13 @@
         <v>18969</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2298,13 @@
         <v>34246</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -2307,13 +2313,13 @@
         <v>45553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -2322,13 +2328,13 @@
         <v>79800</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2349,13 @@
         <v>11657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2358,13 +2364,13 @@
         <v>20328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -2373,13 +2379,13 @@
         <v>31984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2400,13 @@
         <v>7488</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2409,13 +2415,13 @@
         <v>4907</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -2424,13 +2430,13 @@
         <v>12396</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,7 +2492,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -2498,13 +2504,13 @@
         <v>120664</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>246</v>
@@ -2513,13 +2519,13 @@
         <v>146394</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>383</v>
@@ -2528,13 +2534,13 @@
         <v>267058</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2555,13 @@
         <v>10504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -2564,10 +2570,10 @@
         <v>18702</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>146</v>
@@ -2585,7 +2591,7 @@
         <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2606,13 @@
         <v>108848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>99</v>
@@ -2615,13 +2621,13 @@
         <v>64154</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>200</v>
@@ -2630,13 +2636,13 @@
         <v>173002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2657,13 @@
         <v>36910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -2666,13 +2672,13 @@
         <v>23679</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -2681,13 +2687,13 @@
         <v>60589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2708,13 @@
         <v>82487</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>106</v>
@@ -2717,13 +2723,13 @@
         <v>84270</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>173</v>
@@ -2732,13 +2738,13 @@
         <v>166757</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2759,13 @@
         <v>32942</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -2768,13 +2774,13 @@
         <v>40337</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -2783,13 +2789,13 @@
         <v>73279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2810,13 @@
         <v>12697</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -2819,10 +2825,10 @@
         <v>14711</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>190</v>
@@ -2959,7 +2965,7 @@
         <v>13739</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>204</v>
@@ -2974,13 +2980,13 @@
         <v>9814</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -2989,13 +2995,13 @@
         <v>23553</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3016,13 @@
         <v>58313</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>62</v>
@@ -3025,13 +3031,13 @@
         <v>44513</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>117</v>
@@ -3040,13 +3046,13 @@
         <v>102826</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3067,13 @@
         <v>32325</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>25</v>
@@ -3076,13 +3082,13 @@
         <v>23198</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -3091,13 +3097,13 @@
         <v>55523</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3118,13 @@
         <v>56587</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>73</v>
@@ -3127,13 +3133,13 @@
         <v>60923</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>119</v>
@@ -3142,13 +3148,13 @@
         <v>117510</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3169,13 @@
         <v>51726</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H33" s="7">
         <v>62</v>
@@ -3178,7 +3184,7 @@
         <v>42595</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>242</v>
@@ -3196,10 +3202,10 @@
         <v>244</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>87</v>
+        <v>245</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3220,13 @@
         <v>15166</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -3229,13 +3235,13 @@
         <v>4096</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M34" s="7">
         <v>20</v>
@@ -3244,13 +3250,13 @@
         <v>19262</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,7 +3312,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -3318,13 +3324,13 @@
         <v>155197</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>216</v>
@@ -3333,13 +3339,13 @@
         <v>150923</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>386</v>
@@ -3348,13 +3354,13 @@
         <v>306120</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3375,13 @@
         <v>30581</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -3384,13 +3390,13 @@
         <v>12844</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -3399,13 +3405,13 @@
         <v>43425</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3426,13 @@
         <v>97055</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H38" s="7">
         <v>143</v>
@@ -3435,13 +3441,13 @@
         <v>101212</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>238</v>
@@ -3450,13 +3456,13 @@
         <v>198267</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3477,13 @@
         <v>37753</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H39" s="7">
         <v>57</v>
@@ -3486,13 +3492,13 @@
         <v>52755</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M39" s="7">
         <v>97</v>
@@ -3501,13 +3507,13 @@
         <v>90508</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3528,13 @@
         <v>104888</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H40" s="7">
         <v>144</v>
@@ -3537,13 +3543,13 @@
         <v>103746</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M40" s="7">
         <v>240</v>
@@ -3552,13 +3558,13 @@
         <v>208634</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3579,13 @@
         <v>39847</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H41" s="7">
         <v>74</v>
@@ -3588,13 +3594,13 @@
         <v>60259</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="M41" s="7">
         <v>105</v>
@@ -3603,13 +3609,13 @@
         <v>100106</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3630,13 @@
         <v>16108</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3639,13 +3645,13 @@
         <v>15535</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="M42" s="7">
         <v>39</v>
@@ -3654,13 +3660,13 @@
         <v>31643</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,10 +3752,10 @@
         <v>317</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M44" s="7">
         <v>1467</v>
@@ -3758,13 +3764,13 @@
         <v>1099505</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3785,13 @@
         <v>64309</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>324</v>
+        <v>144</v>
       </c>
       <c r="H45" s="7">
         <v>81</v>
@@ -3797,10 +3803,10 @@
         <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M45" s="7">
         <v>149</v>
@@ -3809,10 +3815,10 @@
         <v>117349</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>328</v>
@@ -3830,13 +3836,13 @@
         <v>304845</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H46" s="7">
         <v>384</v>
@@ -3845,13 +3851,13 @@
         <v>257319</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M46" s="7">
         <v>679</v>
@@ -3860,13 +3866,13 @@
         <v>562164</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3887,13 @@
         <v>116314</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H47" s="7">
         <v>138</v>
@@ -3896,13 +3902,13 @@
         <v>115493</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M47" s="7">
         <v>246</v>
@@ -3911,13 +3917,13 @@
         <v>231807</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,13 +3938,13 @@
         <v>284398</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="H48" s="7">
         <v>407</v>
@@ -3950,10 +3956,10 @@
         <v>348</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M48" s="7">
         <v>653</v>
@@ -3962,13 +3968,13 @@
         <v>588775</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3989,13 @@
         <v>142860</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H49" s="7">
         <v>227</v>
@@ -3998,13 +4004,13 @@
         <v>165289</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M49" s="7">
         <v>337</v>
@@ -4013,10 +4019,10 @@
         <v>308149</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>361</v>
@@ -4040,7 +4046,7 @@
         <v>363</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="H50" s="7">
         <v>56</v>
@@ -4049,13 +4055,13 @@
         <v>39250</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>23</v>
+        <v>366</v>
       </c>
       <c r="M50" s="7">
         <v>105</v>
@@ -4064,13 +4070,13 @@
         <v>92092</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,7 +4132,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34C1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C289FEA-0BC5-4DCC-AB38-10CEC2D88744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1580E74-A92A-4ADE-987F-333771500974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34137F49-8369-486C-A2E6-748E0553661F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AA949503-3D3A-4397-8DE3-1545C952EDF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>38,13%</t>
@@ -245,7 +245,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>50,16%</t>
@@ -434,7 +434,7 @@
     <t>4,85%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>29,79%</t>
@@ -620,7 +620,7 @@
     <t>5,02%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>40,18%</t>
@@ -1560,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD9D30-ECF6-4E91-B459-437F004D1401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE63B8F-F6ED-4D7D-ABD8-F4608E1D07BB}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
